--- a/Consumer/O'Reilly Automotive.xlsx
+++ b/Consumer/O'Reilly Automotive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569EB024-C7B3-AA48-8AF9-F578563A28D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FAC5A4-2982-BB49-AB6D-66A1E1AEE16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2459,10 +2459,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>964.58</v>
-    <v>567.66999999999996</v>
-    <v>0.88019999999999998</v>
-    <v>12.5</v>
-    <v>1.3271999999999999E-2</v>
+    <v>580.01</v>
+    <v>0.88060000000000005</v>
+    <v>-12.02</v>
+    <v>-1.2855E-2</v>
+    <v>1.64</v>
+    <v>1.7769999999999999E-3</v>
     <v>USD</v>
     <v>O’Reilly Automotive, Inc. is a specialty retailer of automotive aftermarket parts, tools, supplies, equipment, and accessories in the United States. The Company sells its products to both do-it-yourself (DIY) and professional service provider customers. Its product line includes new and remanufactured automotive hard parts and maintenance items, such as alternators, batteries, brake system components, belts, chassis parts, driveline parts, engine parts, fuel pumps, hoses, starters, temperature control, water pumps, antifreeze, appearance products, engine additives, filters, fluids, lighting, oil and wiper blades, and accessories, such as floor mats, seat covers and truck accessories. The Company's stores offer various services and programs to its customers, such as battery diagnostic testing; battery, wiper and bulb replacement; custom hydraulic hoses; drum and rotor resurfacing; electrical and module testing; loaner tool program, and used oil, oil filter and battery recycling.</v>
     <v>71612</v>
@@ -2470,24 +2472,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>233 S Patterson Ave, SPRINGFIELD, MO, 65802 US</v>
-    <v>954.84</v>
+    <v>935.29499999999996</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45065.994434628905</v>
+    <v>45072.900700497659</v>
     <v>0</v>
-    <v>939.1</v>
-    <v>58096770000</v>
+    <v>921.77</v>
+    <v>56191260000</v>
     <v>O'Reilly Automotive, Inc.</v>
     <v>O'Reilly Automotive, Inc.</v>
-    <v>942.49</v>
-    <v>27.5794</v>
-    <v>941.8</v>
-    <v>954.3</v>
+    <v>933.46</v>
+    <v>27.022200000000002</v>
+    <v>935.02</v>
+    <v>923</v>
+    <v>924.64</v>
     <v>60878940</v>
     <v>ORLY</v>
     <v>O'Reilly Automotive, Inc. (XNAS:ORLY)</v>
-    <v>492331</v>
-    <v>376301</v>
+    <v>427527</v>
+    <v>418031</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2519,6 +2522,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2539,6 +2544,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2555,7 +2561,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2566,13 +2572,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2638,13 +2647,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2689,6 +2704,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2696,6 +2714,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3057,10 +3078,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH80" sqref="AH80"/>
+      <selection pane="bottomRight" activeCell="AI101" sqref="AI101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4867,15 +4888,15 @@
       </c>
       <c r="AL16" s="30">
         <f>AM101/AE3</f>
-        <v>4.0317372965455593</v>
+        <v>3.89950075850841</v>
       </c>
       <c r="AM16" s="30">
         <f>AM101/AE28</f>
-        <v>26.740050169148276</v>
+        <v>25.863006006489769</v>
       </c>
       <c r="AN16" s="31">
         <f>AM101/AE106</f>
-        <v>22.47537243104977</v>
+        <v>21.738204996077229</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12609,7 +12630,7 @@
       </c>
       <c r="AM95" s="39" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>0.88019999999999998</v>
+        <v>0.88060000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12812,7 +12833,7 @@
       </c>
       <c r="AM97" s="36">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>7.8842610000000007E-2</v>
+        <v>7.8859830000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13115,7 +13136,7 @@
       </c>
       <c r="AM100" s="34">
         <f>AM99/AM103</f>
-        <v>0.10125073868611333</v>
+        <v>0.10432606072179276</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13217,7 +13238,7 @@
       </c>
       <c r="AM101" s="40" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58096770000</v>
+        <v>56191260000</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13319,7 +13340,7 @@
       </c>
       <c r="AM102" s="34">
         <f>AM101/AM103</f>
-        <v>0.89874926131388666</v>
+        <v>0.89567393927820727</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13421,7 +13442,7 @@
       </c>
       <c r="AM103" s="41">
         <f>AM99+AM101</f>
-        <v>64641800000</v>
+        <v>62736290000</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13655,7 +13676,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>7.2753884723728374E-2</v>
+        <v>7.2584373370666394E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13821,7 +13842,7 @@
       <c r="AI107" s="43"/>
       <c r="AJ107" s="46">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>72181727159.058212</v>
+        <v>72438862461.477158</v>
       </c>
       <c r="AK107" s="47" t="s">
         <v>148</v>
@@ -13852,7 +13873,7 @@
       </c>
       <c r="AJ108" s="46">
         <f>AJ107+AJ106</f>
-        <v>75544612893.607758</v>
+        <v>75801748196.026703</v>
       </c>
       <c r="AK108" s="47" t="s">
         <v>144</v>
@@ -13862,7 +13883,7 @@
       </c>
       <c r="AM108" s="51">
         <f>AM105</f>
-        <v>7.2753884723728374E-2</v>
+        <v>7.2584373370666394E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13877,7 +13898,7 @@
       </c>
       <c r="AG110" s="40">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>63070743616.375084</v>
+        <v>63297787431.947365</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13904,7 +13925,7 @@
       </c>
       <c r="AG113" s="40">
         <f>AG110+AG111-AG112</f>
-        <v>56634296616.375084</v>
+        <v>56861340431.947365</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13922,7 +13943,7 @@
       </c>
       <c r="AG115" s="55">
         <f>AG113/AG114</f>
-        <v>1263.4091310303763</v>
+        <v>1268.4740695371797</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13931,7 +13952,7 @@
       </c>
       <c r="AG116" s="56" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>954.3</v>
+        <v>923</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13940,7 +13961,7 @@
       </c>
       <c r="AG117" s="58">
         <f>AG115/AG116-1</f>
-        <v>0.3239119050931325</v>
+        <v>0.37429476656249161</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/O'Reilly Automotive.xlsx
+++ b/Consumer/O'Reilly Automotive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FAC5A4-2982-BB49-AB6D-66A1E1AEE16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABB9D93-CB6F-D747-8211-B8BFB5CCBC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2459,12 +2459,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>964.58</v>
-    <v>580.01</v>
-    <v>0.88060000000000005</v>
-    <v>-12.02</v>
-    <v>-1.2855E-2</v>
-    <v>1.64</v>
-    <v>1.7769999999999999E-3</v>
+    <v>615.01</v>
+    <v>0.87590000000000001</v>
+    <v>-7.9574999999999996</v>
+    <v>-8.5329999999999989E-3</v>
     <v>USD</v>
     <v>O’Reilly Automotive, Inc. is a specialty retailer of automotive aftermarket parts, tools, supplies, equipment, and accessories in the United States. The Company sells its products to both do-it-yourself (DIY) and professional service provider customers. Its product line includes new and remanufactured automotive hard parts and maintenance items, such as alternators, batteries, brake system components, belts, chassis parts, driveline parts, engine parts, fuel pumps, hoses, starters, temperature control, water pumps, antifreeze, appearance products, engine additives, filters, fluids, lighting, oil and wiper blades, and accessories, such as floor mats, seat covers and truck accessories. The Company's stores offer various services and programs to its customers, such as battery diagnostic testing; battery, wiper and bulb replacement; custom hydraulic hoses; drum and rotor resurfacing; electrical and module testing; loaner tool program, and used oil, oil filter and battery recycling.</v>
     <v>71612</v>
@@ -2472,25 +2470,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>233 S Patterson Ave, SPRINGFIELD, MO, 65802 US</v>
-    <v>935.29499999999996</v>
+    <v>933.07</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45072.900700497659</v>
+    <v>45100.774928541403</v>
     <v>0</v>
-    <v>921.77</v>
-    <v>56191260000</v>
+    <v>922.89</v>
+    <v>56288211331</v>
     <v>O'Reilly Automotive, Inc.</v>
     <v>O'Reilly Automotive, Inc.</v>
-    <v>933.46</v>
-    <v>27.022200000000002</v>
-    <v>935.02</v>
-    <v>923</v>
-    <v>924.64</v>
+    <v>932.63</v>
+    <v>26.950900000000001</v>
+    <v>932.55</v>
+    <v>924.59249999999997</v>
     <v>60878940</v>
     <v>ORLY</v>
     <v>O'Reilly Automotive, Inc. (XNAS:ORLY)</v>
-    <v>427527</v>
-    <v>418031</v>
+    <v>260038</v>
+    <v>517234</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2522,8 +2519,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2544,7 +2539,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2561,7 +2555,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2572,16 +2566,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2647,19 +2638,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2704,9 +2689,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2714,9 +2696,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3081,7 +3060,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AF89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI101" sqref="AI101"/>
+      <selection pane="bottomRight" activeCell="AH100" sqref="AH100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4888,15 +4867,15 @@
       </c>
       <c r="AL16" s="30">
         <f>AM101/AE3</f>
-        <v>3.89950075850841</v>
+        <v>3.9062288829315484</v>
       </c>
       <c r="AM16" s="30">
         <f>AM101/AE28</f>
-        <v>25.863006006489769</v>
+        <v>25.90762954502566</v>
       </c>
       <c r="AN16" s="31">
         <f>AM101/AE106</f>
-        <v>21.738204996077229</v>
+        <v>21.775711681421544</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12630,7 +12609,7 @@
       </c>
       <c r="AM95" s="39" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>0.88060000000000005</v>
+        <v>0.87590000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12833,7 +12812,7 @@
       </c>
       <c r="AM97" s="36">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>7.8859830000000006E-2</v>
+        <v>7.8657495000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13136,7 +13115,7 @@
       </c>
       <c r="AM100" s="34">
         <f>AM99/AM103</f>
-        <v>0.10432606072179276</v>
+        <v>0.10416508620845066</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13238,7 +13217,7 @@
       </c>
       <c r="AM101" s="40" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56191260000</v>
+        <v>56288211331</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13340,7 +13319,7 @@
       </c>
       <c r="AM102" s="34">
         <f>AM101/AM103</f>
-        <v>0.89567393927820727</v>
+        <v>0.89583491379154934</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13442,7 +13421,7 @@
       </c>
       <c r="AM103" s="41">
         <f>AM99+AM101</f>
-        <v>62736290000</v>
+        <v>62833241331</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13676,7 +13655,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>7.2584373370666394E-2</v>
+        <v>7.2412797606971183E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13842,7 +13821,7 @@
       <c r="AI107" s="43"/>
       <c r="AJ107" s="46">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>72438862461.477158</v>
+        <v>72701001668.091125</v>
       </c>
       <c r="AK107" s="47" t="s">
         <v>148</v>
@@ -13873,7 +13852,7 @@
       </c>
       <c r="AJ108" s="46">
         <f>AJ107+AJ106</f>
-        <v>75801748196.026703</v>
+        <v>76063887402.640671</v>
       </c>
       <c r="AK108" s="47" t="s">
         <v>144</v>
@@ -13883,7 +13862,7 @@
       </c>
       <c r="AM108" s="51">
         <f>AM105</f>
-        <v>7.2584373370666394E-2</v>
+        <v>7.2412797606971183E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13898,7 +13877,7 @@
       </c>
       <c r="AG110" s="40">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>63297787431.947365</v>
+        <v>63529251087.075859</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13925,7 +13904,7 @@
       </c>
       <c r="AG113" s="40">
         <f>AG110+AG111-AG112</f>
-        <v>56861340431.947365</v>
+        <v>57092804087.075859</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13943,7 +13922,7 @@
       </c>
       <c r="AG115" s="55">
         <f>AG113/AG114</f>
-        <v>1268.4740695371797</v>
+        <v>1273.637606702157</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13952,7 +13931,7 @@
       </c>
       <c r="AG116" s="56" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>923</v>
+        <v>924.59249999999997</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13961,7 +13940,7 @@
       </c>
       <c r="AG117" s="58">
         <f>AG115/AG116-1</f>
-        <v>0.37429476656249161</v>
+        <v>0.37751237080352373</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/O'Reilly Automotive.xlsx
+++ b/Consumer/O'Reilly Automotive.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABB9D93-CB6F-D747-8211-B8BFB5CCBC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC06E41-9A50-3346-B0C9-4064BED95F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +547,46 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,20 +922,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,77 +936,91 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,9 +1073,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ORLY</a:t>
+              <a:t>O'Reilly Automotive</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1124,10 +1111,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4072487644151567E-2"/>
-          <c:y val="0.11301500020748542"/>
-          <c:w val="0.86452718286655694"/>
-          <c:h val="0.73626925102013951"/>
+          <c:x val="9.7735099337748335E-2"/>
+          <c:y val="0.14293597679588083"/>
+          <c:w val="0.84398675496688746"/>
+          <c:h val="0.67476538341409598"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1282,7 +1269,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C4D-5843-9F57-567B55633991}"/>
+              <c16:uniqueId val="{00000000-8E3F-7345-9072-6D84740C44F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,11 +1278,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1335,106 +1322,106 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AE$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>15600000</c:v>
+                  <c:v>8200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20800000</c:v>
+                  <c:v>11100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26300000</c:v>
+                  <c:v>14100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36200000</c:v>
+                  <c:v>19000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45800000</c:v>
+                  <c:v>23100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62200000</c:v>
+                  <c:v>30800000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90900000</c:v>
+                  <c:v>45600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107971000</c:v>
+                  <c:v>51708000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137271000</c:v>
+                  <c:v>66352000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167889000</c:v>
+                  <c:v>81992000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202416000</c:v>
+                  <c:v>100087000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>263954000</c:v>
+                  <c:v>139566000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>308297000</c:v>
+                  <c:v>164266000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>347203000</c:v>
+                  <c:v>178085000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>386431000</c:v>
+                  <c:v>193988000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>441668000</c:v>
+                  <c:v>186232000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>690253000</c:v>
+                  <c:v>307498000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>890088000</c:v>
+                  <c:v>419373000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1009818000</c:v>
+                  <c:v>507673000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1158827000</c:v>
+                  <c:v>585746000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1291196000</c:v>
+                  <c:v>670292000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1469677000</c:v>
+                  <c:v>778182000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1727751000</c:v>
+                  <c:v>931216000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1925988000</c:v>
+                  <c:v>1037691000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1962998000</c:v>
+                  <c:v>1133804000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2075153000</c:v>
+                  <c:v>1324487000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2201179000</c:v>
+                  <c:v>1391042000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2742166000</c:v>
+                  <c:v>1752302000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3254899000</c:v>
+                  <c:v>2164685000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3314308000</c:v>
+                  <c:v>2172650000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C4D-5843-9F57-567B55633991}"/>
+              <c16:uniqueId val="{00000001-8E3F-7345-9072-6D84740C44F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1443,11 +1430,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$87</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cash Provided by Operating Activities</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1487,106 +1474,106 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$87:$AE$87</c:f>
+              <c:f>'Sheet 1'!$B$107:$AE$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-1800000</c:v>
+                  <c:v>-10300000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8400000</c:v>
+                  <c:v>-5300000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900000</c:v>
+                  <c:v>-27700000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4900000</c:v>
+                  <c:v>-29600000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17900000</c:v>
+                  <c:v>-19300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-19100000</c:v>
+                  <c:v>-126100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29700000</c:v>
+                  <c:v>-56300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5832000</c:v>
+                  <c:v>-76155000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50029000</c:v>
+                  <c:v>-18492000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104533000</c:v>
+                  <c:v>2276000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>172841000</c:v>
+                  <c:v>36344000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>226536000</c:v>
+                  <c:v>53050000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213322000</c:v>
+                  <c:v>8163000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>185928000</c:v>
+                  <c:v>-42943000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>299418000</c:v>
+                  <c:v>16763000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>298542000</c:v>
+                  <c:v>-43137000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>285200000</c:v>
+                  <c:v>-129579000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>703687000</c:v>
+                  <c:v>338268000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1118991000</c:v>
+                  <c:v>790672000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1251555000</c:v>
+                  <c:v>950836000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>908026000</c:v>
+                  <c:v>512145000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1190430000</c:v>
+                  <c:v>760443000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1281476000</c:v>
+                  <c:v>867456000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1454167000</c:v>
+                  <c:v>977823000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1403687000</c:v>
+                  <c:v>937747000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1727555000</c:v>
+                  <c:v>1223287000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1708479000</c:v>
+                  <c:v>1080422000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2836603000</c:v>
+                  <c:v>2371024000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3207310000</c:v>
+                  <c:v>2764457000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3148250000</c:v>
+                  <c:v>2584908000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1C4D-5843-9F57-567B55633991}"/>
+              <c16:uniqueId val="{00000002-8E3F-7345-9072-6D84740C44F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1600,11 +1587,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="183248832"/>
-        <c:axId val="183115104"/>
+        <c:axId val="1036464735"/>
+        <c:axId val="1036467007"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183248832"/>
+        <c:axId val="1036464735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183115104"/>
+        <c:crossAx val="1036467007"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183115104"/>
+        <c:axId val="1036467007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1701,7 +1688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183248832"/>
+        <c:crossAx val="1036464735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1719,10 +1706,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27850603847500943"/>
-          <c:y val="0.92125311875501092"/>
-          <c:w val="0.47461879126723655"/>
-          <c:h val="4.8675576184379003E-2"/>
+          <c:x val="0.34285008082598945"/>
+          <c:y val="0.90286768318632893"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="5.9437495547855754E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2302,22 +2289,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>63499</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B57969-F742-02F6-9FDF-C59EBE8F6E06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62847FD9-E569-44FC-52BF-5A1F7D289933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,6 +2323,50 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2459,10 +2490,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>964.58</v>
-    <v>615.01</v>
-    <v>0.87590000000000001</v>
-    <v>-7.9574999999999996</v>
-    <v>-8.5329999999999989E-3</v>
+    <v>647.54</v>
+    <v>0.86890000000000001</v>
+    <v>-9.86</v>
+    <v>-1.0441000000000001E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>O’Reilly Automotive, Inc. is a specialty retailer of automotive aftermarket parts, tools, supplies, equipment, and accessories in the United States. The Company sells its products to both do-it-yourself (DIY) and professional service provider customers. Its product line includes new and remanufactured automotive hard parts and maintenance items, such as alternators, batteries, brake system components, belts, chassis parts, driveline parts, engine parts, fuel pumps, hoses, starters, temperature control, water pumps, antifreeze, appearance products, engine additives, filters, fluids, lighting, oil and wiper blades, and accessories, such as floor mats, seat covers and truck accessories. The Company's stores offer various services and programs to its customers, such as battery diagnostic testing; battery, wiper and bulb replacement; custom hydraulic hoses; drum and rotor resurfacing; electrical and module testing; loaner tool program, and used oil, oil filter and battery recycling.</v>
     <v>71612</v>
@@ -2470,24 +2503,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>233 S Patterson Ave, SPRINGFIELD, MO, 65802 US</v>
-    <v>933.07</v>
+    <v>941.36990000000003</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45100.774928541403</v>
+    <v>45114.99209381875</v>
     <v>0</v>
-    <v>922.89</v>
-    <v>56288211331</v>
+    <v>930.21</v>
+    <v>56889540000</v>
     <v>O'Reilly Automotive, Inc.</v>
     <v>O'Reilly Automotive, Inc.</v>
-    <v>932.63</v>
-    <v>26.950900000000001</v>
-    <v>932.55</v>
-    <v>924.59249999999997</v>
+    <v>940.17</v>
+    <v>27.006399999999999</v>
+    <v>944.33</v>
+    <v>934.47</v>
+    <v>934.47</v>
     <v>60878940</v>
     <v>ORLY</v>
     <v>O'Reilly Automotive, Inc. (XNAS:ORLY)</v>
-    <v>260038</v>
-    <v>517234</v>
+    <v>474464</v>
+    <v>508625</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2519,6 +2553,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2539,6 +2575,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2555,7 +2592,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2566,13 +2603,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2638,13 +2678,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2689,6 +2735,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2696,6 +2745,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3057,10 +3109,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH100" sqref="AH100"/>
+      <selection pane="bottomRight" activeCell="AI98" sqref="AI98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3164,19 +3216,19 @@
       <c r="AE1" s="8">
         <v>2022</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2023</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="23">
         <v>2024</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="23">
         <v>2025</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="23">
         <v>2026</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3185,103 +3237,103 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
@@ -3380,37 +3432,37 @@
       <c r="AE3" s="1">
         <v>14409860000</v>
       </c>
-      <c r="AF3" s="28">
-        <v>15432000000</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>16319000000</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>17230000000</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>17913000000</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>18742000000</v>
+      <c r="AF3" s="24">
+        <v>15530000000</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>16460000000</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>17353000000</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>17991000000</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>18823000000</v>
       </c>
       <c r="AK3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AM3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="AN3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AN3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3433,121 +3485,121 @@
         <f t="shared" si="0"/>
         <v>0.94785082174462709</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4" si="1">(H3/G3)-1</f>
         <v>0.22359240629563515</v>
       </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4" si="2">(I3/H3)-1</f>
         <v>0.18077310701498472</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4" si="3">(J3/I3)-1</f>
         <v>0.22651195333443397</v>
       </c>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4" si="4">(K3/J3)-1</f>
         <v>0.20179065883352632</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" si="0"/>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4" si="5">(L3/K3)-1</f>
         <v>0.1518685856654145</v>
       </c>
-      <c r="M4" s="16">
-        <f t="shared" si="0"/>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4" si="6">(M3/L3)-1</f>
         <v>0.13852545547870898</v>
       </c>
-      <c r="N4" s="16">
-        <f t="shared" si="0"/>
+      <c r="N4" s="15">
+        <f t="shared" ref="N4" si="7">(N3/M3)-1</f>
         <v>0.18828101352454429</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="0"/>
+      <c r="O4" s="15">
+        <f t="shared" ref="O4" si="8">(O3/N3)-1</f>
         <v>0.11631638698725588</v>
       </c>
-      <c r="P4" s="16">
-        <f t="shared" si="0"/>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4" si="9">(P3/O3)-1</f>
         <v>0.10471912061113642</v>
       </c>
-      <c r="Q4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="15">
+        <f t="shared" ref="Q4" si="10">(Q3/P3)-1</f>
         <v>0.41796220065741085</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="0"/>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4" si="11">(R3/Q3)-1</f>
         <v>0.35523281774378845</v>
       </c>
-      <c r="S4" s="16">
-        <f t="shared" si="0"/>
+      <c r="S4" s="15">
+        <f t="shared" ref="S4" si="12">(S3/R3)-1</f>
         <v>0.11356632120653698</v>
       </c>
-      <c r="T4" s="16">
-        <f t="shared" si="0"/>
+      <c r="T4" s="15">
+        <f t="shared" ref="T4" si="13">(T3/S3)-1</f>
         <v>7.2494522952649687E-2</v>
       </c>
-      <c r="U4" s="16">
-        <f t="shared" si="0"/>
+      <c r="U4" s="15">
+        <f t="shared" ref="U4" si="14">(U3/T3)-1</f>
         <v>6.7953101290488371E-2</v>
       </c>
-      <c r="V4" s="16">
-        <f t="shared" si="0"/>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4" si="15">(V3/U3)-1</f>
         <v>7.5548220499422225E-2</v>
       </c>
-      <c r="W4" s="16">
-        <f t="shared" si="0"/>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4" si="16">(W3/V3)-1</f>
         <v>8.5249480504304476E-2</v>
       </c>
-      <c r="X4" s="16">
-        <f t="shared" si="0"/>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4" si="17">(X3/W3)-1</f>
         <v>0.10401670934680474</v>
       </c>
-      <c r="Y4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Y4" s="15">
+        <f t="shared" ref="Y4" si="18">(Y3/X3)-1</f>
         <v>7.8630304189678091E-2</v>
       </c>
-      <c r="Z4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Z4" s="15">
+        <f t="shared" ref="Z4" si="19">(Z3/Y3)-1</f>
         <v>4.476035179869986E-2</v>
       </c>
-      <c r="AA4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AA4" s="15">
+        <f t="shared" ref="AA4" si="20">(AA3/Z3)-1</f>
         <v>6.2232017328218703E-2</v>
       </c>
-      <c r="AB4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AB4" s="15">
+        <f t="shared" ref="AB4" si="21">(AB3/AA3)-1</f>
         <v>6.433824069137839E-2</v>
       </c>
-      <c r="AC4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AC4" s="15">
+        <f t="shared" ref="AC4" si="22">(AC3/AB3)-1</f>
         <v>0.14330149256378211</v>
       </c>
-      <c r="AD4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AD4" s="15">
+        <f t="shared" ref="AD4" si="23">(AD3/AC3)-1</f>
         <v>0.14848300567719752</v>
       </c>
-      <c r="AE4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AE4" s="15">
+        <f t="shared" ref="AE4" si="24">(AE3/AD3)-1</f>
         <v>8.1207419540991754E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0933374786430914E-2</v>
+        <v>7.7734273615427174E-2</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="0"/>
-        <v>5.7477967858994283E-2</v>
+        <v>5.9884095299420403E-2</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="0"/>
-        <v>5.5824499050186827E-2</v>
+        <v>5.4252733900364447E-2</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>3.9640162507254884E-2</v>
+        <v>3.676597706448459E-2</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>4.6279238541841128E-2</v>
+        <v>4.6245344894669582E-2</v>
       </c>
       <c r="AK4" s="17">
         <f>(AE4+AD4+AC4)/3</f>
@@ -3562,7 +3614,7 @@
         <v>0.16624065772244156</v>
       </c>
       <c r="AN4" s="17">
-        <f>(AE105+AD105+AC105)/3</f>
+        <f>(AE106+AD106+AC106)/3</f>
         <v>0.43183992894489664</v>
       </c>
     </row>
@@ -3756,16 +3808,16 @@
         <v>7381706000</v>
       </c>
       <c r="AK6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AL6" s="19" t="s">
+      <c r="AM6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AM6" s="19" t="s">
+      <c r="AN6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AN6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -3875,7 +3927,7 @@
         <v>0.15079999999999999</v>
       </c>
       <c r="AN7" s="20">
-        <f>AE106/AE3</f>
+        <f>AE107/AE3</f>
         <v>0.17938467132921485</v>
       </c>
     </row>
@@ -3976,139 +4028,139 @@
     </row>
     <row r="9" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:AE9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AE9" si="25">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AD9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AK9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AL9" s="19" t="s">
+      <c r="AM9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AM9" s="19" t="s">
+      <c r="AN9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AN9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -4116,13 +4168,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1">
         <v>79600000</v>
@@ -4197,13 +4249,13 @@
         <v>3473965000</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="17">
         <f>AE9</f>
@@ -4227,91 +4279,91 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1">
         <v>7028154000</v>
@@ -4322,13 +4374,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>79600000</v>
@@ -4403,7 +4455,7 @@
         <v>3473965000</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD12" s="1">
         <v>4102781000</v>
@@ -4412,140 +4464,140 @@
         <v>4427215000</v>
       </c>
       <c r="AK12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AL12" s="19" t="s">
+      <c r="AM12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AM12" s="19" t="s">
+      <c r="AN12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AN12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15" t="e">
-        <f t="shared" ref="C13:AE13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AE13" si="26">C12/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.30709876543209874</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.30815423514538559</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.32613986694791497</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.32939928391460016</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.328689462624983</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.32413067524209971</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.31626831442525277</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.3129084491763548</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.32110959476331319</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.31289951000284555</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.31726919239565843</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.32323786166618895</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.3613280720291297</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.36907078968661838</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.35353537037808996</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.3408954439042457</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.34292492750134906</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.34071819067360659</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.33792954929413904</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.33246270651968435</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.32698401135050742</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.3336349316074026</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.33815407613836124</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.34226306738384343</v>
       </c>
       <c r="AC13" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.30784180123552973</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.30723511540014964</v>
       </c>
       <c r="AK13" s="17">
@@ -4594,70 +4646,70 @@
         <v>24812000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1">
         <v>-2798000</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1">
         <v>3666356000</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -4755,16 +4807,16 @@
         <v>4427215000</v>
       </c>
       <c r="AK15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AL15" s="19" t="s">
+      <c r="AM15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AM15" s="19" t="s">
+      <c r="AN15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AN15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -4861,71 +4913,71 @@
       <c r="AE16" s="1">
         <v>11455369000</v>
       </c>
-      <c r="AK16" s="29">
+      <c r="AK16" s="25">
         <f>(AE35+AD35+AC35+AB35+AA35)/5</f>
         <v>-6.1991413371007144E-2</v>
       </c>
-      <c r="AL16" s="30">
+      <c r="AL16" s="26">
         <f>AM101/AE3</f>
-        <v>3.9062288829315484</v>
-      </c>
-      <c r="AM16" s="30">
+        <v>3.9479592445728136</v>
+      </c>
+      <c r="AM16" s="26">
         <f>AM101/AE28</f>
-        <v>25.90762954502566</v>
-      </c>
-      <c r="AN16" s="31">
-        <f>AM101/AE106</f>
-        <v>21.775711681421544</v>
+        <v>26.184401537293166</v>
+      </c>
+      <c r="AN16" s="27">
+        <f>AM101/AE107</f>
+        <v>22.008342269821597</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1">
         <v>26138000</v>
@@ -4973,7 +5025,7 @@
         <v>157720000</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5068,10 +5120,19 @@
         <v>357933000</v>
       </c>
       <c r="AK18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AL18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5165,14 +5226,41 @@
       <c r="AE19" s="10">
         <v>3314308000</v>
       </c>
-      <c r="AK19" s="32">
+      <c r="AF19" s="61">
+        <v>3535000000</v>
+      </c>
+      <c r="AG19" s="61">
+        <v>3791000000</v>
+      </c>
+      <c r="AH19" s="61">
+        <v>4010000000</v>
+      </c>
+      <c r="AI19" s="61">
+        <v>4165000000</v>
+      </c>
+      <c r="AJ19" s="61">
+        <v>4492000000</v>
+      </c>
+      <c r="AK19" s="28">
         <f>AE40-AE56-AE61</f>
         <v>-6436447000</v>
       </c>
+      <c r="AL19" s="56">
+        <f>AM101/AF3</f>
+        <v>3.663202833226014</v>
+      </c>
+      <c r="AM19" s="57">
+        <f>AM101/AF28</f>
+        <v>24.83175032736796</v>
+      </c>
+      <c r="AN19" s="58">
+        <f>AM101/AF106</f>
+        <v>25.811950998185118</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5188,111 +5276,134 @@
         <v>0.37642585551330798</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AE20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AJ20" si="27">(F19/E19)-1</f>
         <v>0.26519337016574585</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.35807860262008728</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.46141479099678451</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.18779977997799779</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.27136916394216959</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.2230478396748039</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.20565373550381505</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.30401746897478454</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.16799518097850386</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.12619649234342201</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.11298289473305245</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.14294143068232112</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.56283226314788481</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.28950978843989095</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.13451478954889851</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.14756025343180657</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.11422671373725324</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.1382292076493421</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.17559912824382495</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.11473701939689218</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>1.9216111419178006E-2</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>5.7134546239985928E-2</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>6.0730943694272232E-2</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.24577147065277294</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.18698102157199825</v>
       </c>
       <c r="AE20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>1.8252179253488432E-2</v>
       </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="27"/>
+        <v>6.6587655703694404E-2</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="27"/>
+        <v>7.2418670438472388E-2</v>
+      </c>
+      <c r="AH20" s="16">
+        <f t="shared" si="27"/>
+        <v>5.7768398839356472E-2</v>
+      </c>
+      <c r="AI20" s="16">
+        <f t="shared" si="27"/>
+        <v>3.8653366583541127E-2</v>
+      </c>
+      <c r="AJ20" s="16">
+        <f t="shared" si="27"/>
+        <v>7.8511404561824705E-2</v>
+      </c>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
     </row>
-    <row r="21" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5386,8 +5497,34 @@
       <c r="AE21" s="2">
         <v>0.23</v>
       </c>
+      <c r="AF21" s="62">
+        <f>AF19/AF3</f>
+        <v>0.22762395363811977</v>
+      </c>
+      <c r="AG21" s="62">
+        <f t="shared" ref="AG21:AJ21" si="28">AG19/AG3</f>
+        <v>0.23031591737545565</v>
+      </c>
+      <c r="AH21" s="62">
+        <f t="shared" si="28"/>
+        <v>0.23108396242724602</v>
+      </c>
+      <c r="AI21" s="62">
+        <f t="shared" si="28"/>
+        <v>0.23150464120949363</v>
+      </c>
+      <c r="AJ21" s="62">
+        <f t="shared" si="28"/>
+        <v>0.2386442118684588</v>
+      </c>
+      <c r="AM21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5481,8 +5618,16 @@
       <c r="AE22" s="10">
         <v>2954491000</v>
       </c>
+      <c r="AM22" s="59">
+        <f>(-1*AE98)/AM101</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="60">
+        <f>AE107/AM101</f>
+        <v>4.5437315893220441E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5577,7 +5722,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5672,7 +5817,7 @@
         <v>-155836000</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5767,7 +5912,7 @@
         <v>2798655000</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5862,7 +6007,7 @@
         <v>0.19420000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5957,7 +6102,7 @@
         <v>626005000</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6051,10 +6196,25 @@
       <c r="AE28" s="11">
         <v>2172650000</v>
       </c>
+      <c r="AF28" s="63">
+        <v>2291000000</v>
+      </c>
+      <c r="AG28" s="63">
+        <v>2452000000</v>
+      </c>
+      <c r="AH28" s="63">
+        <v>2561000000</v>
+      </c>
+      <c r="AI28" s="63">
+        <v>2641000000</v>
+      </c>
+      <c r="AJ28" s="63">
+        <v>2780000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6070,111 +6230,131 @@
         <v>0.34751773049645385</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AE29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AJ29" si="29">(F28/E28)-1</f>
         <v>0.21578947368421053</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.48051948051948057</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.13394736842105259</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.28320569350970826</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.23571256329877022</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.2206922626597716</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.39444683125680657</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.17697720075089918</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>8.4125747263584572E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>8.9300053345312547E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>-3.9981854547703977E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.65115554791872499</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.36382350454311907</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.21055241992212181</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.15378600004333509</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.1443390138387628</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.16095970114517266</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.19665579517387966</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.1143397450215633</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>9.2621984771960042E-2</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.16817986177505118</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>5.0249643824363588E-2</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.2597045955477979</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.23533785842851285</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3.6795191910139469E-3</v>
       </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="29"/>
+        <v>5.4472648608841823E-2</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="29"/>
+        <v>7.0274989087734552E-2</v>
+      </c>
+      <c r="AH29" s="16">
+        <f t="shared" si="29"/>
+        <v>4.4453507340946219E-2</v>
+      </c>
+      <c r="AI29" s="16">
+        <f t="shared" si="29"/>
+        <v>3.1237797735259587E-2</v>
+      </c>
+      <c r="AJ29" s="16">
+        <f t="shared" si="29"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6268,8 +6448,28 @@
       <c r="AE30" s="2">
         <v>0.15079999999999999</v>
       </c>
+      <c r="AF30" s="64">
+        <f t="shared" ref="AF30:AJ30" si="30">AF28/AF3</f>
+        <v>0.14752092723760463</v>
+      </c>
+      <c r="AG30" s="64">
+        <f t="shared" si="30"/>
+        <v>0.14896719319562576</v>
+      </c>
+      <c r="AH30" s="64">
+        <f t="shared" si="30"/>
+        <v>0.1475825505676252</v>
+      </c>
+      <c r="AI30" s="64">
+        <f t="shared" si="30"/>
+        <v>0.14679562003223834</v>
+      </c>
+      <c r="AJ30" s="64">
+        <f t="shared" si="30"/>
+        <v>0.14769165382776392</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6363,8 +6563,23 @@
       <c r="AE31" s="12">
         <v>33.75</v>
       </c>
+      <c r="AF31" s="65">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="AG31" s="65">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="AH31" s="65">
+        <v>42.06</v>
+      </c>
+      <c r="AI31" s="65">
+        <v>43.48</v>
+      </c>
+      <c r="AJ31" s="65">
+        <v>45.67</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6651,7 +6866,7 @@
     </row>
     <row r="35" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6659,115 +6874,115 @@
         <v>6.4942595384436972E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AE35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AE35" si="31">(D34-C34)/C34</f>
         <v>0.19391634980988592</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>6.7554526153252269E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>1.9794861963190184E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>1.527470978051417E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>0.15070363855198593</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>4.0490797546012272E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>2.0453139498917413E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>1.7163641874739514E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>1.5607539298219474E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>2.1657803044195855E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>1.7617705659564539E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>1.5293028178330467E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>8.3478834944709385E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>8.0401447277739485E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>9.9423504740337926E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>2.9808096778404722E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-3.5276635303397377E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-9.9786104845126761E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-9.9039849489920048E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-4.554414451715106E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-4.2691034599824595E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-4.7225013298658317E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-7.4627791563275439E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-8.0690934280798196E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-5.4594069032571704E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-4.2757237620198486E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-7.0129730600843376E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v>-6.1785095320623915E-2</v>
       </c>
     </row>
@@ -6776,94 +6991,94 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -6871,94 +7086,94 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -6966,13 +7181,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1">
         <v>1200000</v>
@@ -7061,22 +7276,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>500000</v>
@@ -7088,67 +7303,67 @@
         <v>500000</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -7156,13 +7371,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>1200000</v>
@@ -7251,13 +7466,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>11300000</v>
@@ -7346,13 +7561,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>83900000</v>
@@ -7441,13 +7656,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>3800000</v>
@@ -7536,13 +7751,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>100200000</v>
@@ -7631,13 +7846,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>79800000</v>
@@ -7726,46 +7941,46 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1">
         <v>50447000</v>
@@ -7821,94 +8036,94 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -7916,46 +8131,46 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1">
         <v>50447000</v>
@@ -8011,94 +8226,94 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -8106,94 +8321,94 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1">
         <v>28767000</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -8201,13 +8416,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>3600000</v>
@@ -8296,13 +8511,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>83400000</v>
@@ -8391,94 +8606,94 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8486,13 +8701,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11">
         <v>183600000</v>
@@ -8581,13 +8796,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>17300000</v>
@@ -8676,13 +8891,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>3200000</v>
@@ -8742,22 +8957,22 @@
         <v>25000</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="1">
         <v>337832000</v>
@@ -8771,94 +8986,94 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -8866,94 +9081,94 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -8961,13 +9176,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>5200000</v>
@@ -9056,13 +9271,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>25700000</v>
@@ -9151,13 +9366,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>200000</v>
@@ -9246,94 +9461,94 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9341,13 +9556,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>1500000</v>
@@ -9356,7 +9571,7 @@
         <v>2100000</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1">
         <v>1200000</v>
@@ -9386,7 +9601,7 @@
         <v>27241000</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1">
         <v>18321000</v>
@@ -9436,13 +9651,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>400000</v>
@@ -9531,13 +9746,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>2100000</v>
@@ -9626,94 +9841,94 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9721,13 +9936,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <v>27800000</v>
@@ -9816,22 +10031,22 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1">
         <v>500000</v>
@@ -9903,7 +10118,7 @@
         <v>670000</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9911,13 +10126,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>81700000</v>
@@ -10006,13 +10221,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-21400000</v>
@@ -10101,13 +10316,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>95500000</v>
@@ -10196,13 +10411,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10">
         <v>155800000</v>
@@ -10291,13 +10506,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11">
         <v>183600000</v>
@@ -10386,94 +10601,94 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -10481,94 +10696,94 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10769,7 +10984,7 @@
         <v>-100000</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>900000</v>
@@ -10861,49 +11076,49 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1">
         <v>13554000</v>
@@ -10953,126 +11168,126 @@
     </row>
     <row r="80" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AE80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AE80" si="32">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>3.7896824120878399E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>4.4177276874114669E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>3.1445894182982013E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>3.554958388727505E-3</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>3.5628185767359885E-3</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>3.2668409924326656E-3</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>3.200490681853488E-3</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>2.7488259215828338E-3</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>2.1946688364705806E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>2.1610149385267495E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>2.1156768551075936E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>2.1597076251836825E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>1.9601890405724748E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>1.8500006340243899E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>1.8361038899753364E-3</v>
       </c>
     </row>
@@ -11176,49 +11391,49 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1">
         <v>-7437000</v>
@@ -11360,59 +11575,59 @@
       <c r="AE83" s="1">
         <v>-669046000</v>
       </c>
-      <c r="AL83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM83" s="63"/>
+      <c r="AL83" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM83" s="70"/>
     </row>
     <row r="84" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1">
         <v>50410000</v>
@@ -11459,23 +11674,23 @@
       <c r="AE84" s="1">
         <v>1184858000</v>
       </c>
-      <c r="AL84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM84" s="65"/>
+      <c r="AL84" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM84" s="71"/>
     </row>
     <row r="85" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>74500000</v>
@@ -11556,12 +11771,12 @@
         <v>60950000</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AL85" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM85" s="35">
         <f>AE17</f>
         <v>157720000</v>
       </c>
@@ -11658,12 +11873,12 @@
         <v>6516000</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AL86" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM86" s="35">
         <f>AE56</f>
         <v>366721000</v>
       </c>
@@ -11762,10 +11977,10 @@
       <c r="AE87" s="10">
         <v>3148250000</v>
       </c>
-      <c r="AL87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM87" s="24">
+      <c r="AL87" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM87" s="35">
         <f>AE61</f>
         <v>6178309000</v>
       </c>
@@ -11864,142 +12079,142 @@
       <c r="AE88" s="1">
         <v>-563342000</v>
       </c>
-      <c r="AL88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM88" s="34">
+      <c r="AL88" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM88" s="37">
         <f>AM85/(AM86+AM87)</f>
         <v>2.4097674113029276E-2</v>
       </c>
     </row>
     <row r="89" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AE89" si="33">(-1*B88)/B3</f>
+        <v>6.1953352769679303E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="33"/>
+        <v>8.1986834230999395E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.14193548387096774</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.13310185185185186</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.11757269279393173</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.17361674509167613</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.1140432303408036</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="33"/>
+        <v>9.2076669350790244E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="33"/>
+        <v>6.2741733448584025E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="33"/>
+        <v>7.7910688843343567E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="33"/>
+        <v>9.0286780931012764E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.10079123144289498</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.10030665158180782</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.10024036208480823</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="33"/>
+        <v>0.11206155922387295</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="33"/>
+        <v>9.553304536518821E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="33"/>
+        <v>8.557328129906322E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="33"/>
+        <v>6.7701214908684998E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="33"/>
+        <v>5.6716088402187941E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="33"/>
+        <v>4.8642842076521822E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="33"/>
+        <v>5.9537808623756378E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="33"/>
+        <v>5.9587330020270009E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="33"/>
+        <v>5.1968989819339916E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="33"/>
+        <v>5.5433338577853666E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="33"/>
+        <v>5.189955674744362E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="33"/>
+        <v>5.2878079717059677E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="33"/>
+        <v>6.1877628390583826E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="33"/>
+        <v>4.0120580881904969E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="33"/>
+        <v>3.322835540150889E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="33"/>
+        <v>3.9094203552289888E-2</v>
+      </c>
+      <c r="AL89" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AE89" si="7">(-1*B88)/B3</f>
-        <v>6.1953352769679303E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.1986834230999395E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14193548387096774</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13310185185185186</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11757269279393173</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17361674509167613</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1140432303408036</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.2076669350790244E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.2741733448584025E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.7910688843343567E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.0286780931012764E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10079123144289498</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10030665158180782</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10024036208480823</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11206155922387295</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.553304536518821E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.557328129906322E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7701214908684998E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.6716088402187941E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.8642842076521822E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9537808623756378E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9587330020270009E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.1968989819339916E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.5433338577853666E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.189955674744362E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.2878079717059677E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.1877628390583826E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.0120580881904969E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.322835540150889E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9094203552289888E-2</v>
-      </c>
-      <c r="AL89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM89" s="24">
+      <c r="AM89" s="35">
         <f>AE27</f>
         <v>626005000</v>
       </c>
@@ -12009,76 +12224,76 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>-63000000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-34000000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1">
         <v>-3000000</v>
@@ -12090,18 +12305,18 @@
         <v>-142000000</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1">
         <v>-180333000</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL90" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AM90" s="24">
+      <c r="AM90" s="35">
         <f>AE25</f>
         <v>2798655000</v>
       </c>
@@ -12123,87 +12338,87 @@
         <v>-12500000</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1">
         <v>-21724000</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1">
         <v>-164111000</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AL91" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM91" s="37">
         <f>AM89/AM90</f>
         <v>0.22368066088889127</v>
       </c>
@@ -12225,87 +12440,87 @@
         <v>34900000</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>500000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1">
         <v>17364000</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM92" s="36">
+        <v>91</v>
+      </c>
+      <c r="AL92" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM92" s="37">
         <f>AM88*(1-AM91)</f>
         <v>1.8707490441541762E-2</v>
       </c>
@@ -12321,7 +12536,7 @@
         <v>-1200000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>900000</v>
@@ -12404,10 +12619,10 @@
       <c r="AE93" s="1">
         <v>-176643000</v>
       </c>
-      <c r="AL93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM93" s="65"/>
+      <c r="AL93" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM93" s="71"/>
     </row>
     <row r="94" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12503,11 +12718,12 @@
       <c r="AE94" s="10">
         <v>-739985000</v>
       </c>
-      <c r="AL94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM94" s="37">
-        <v>4.095E-2</v>
+      <c r="AL94" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM94" s="67">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12515,49 +12731,49 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1">
         <v>-590187000</v>
@@ -12584,7 +12800,7 @@
         <v>-25000</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-2755000000</v>
@@ -12604,12 +12820,12 @@
       <c r="AE95" s="1">
         <v>-306591000</v>
       </c>
-      <c r="AL95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM95" s="39" cm="1">
+      <c r="AL95" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM95" s="40" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>0.87590000000000001</v>
+        <v>0.86890000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12706,10 +12922,10 @@
       <c r="AE96" s="1">
         <v>79356000</v>
       </c>
-      <c r="AL96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM96" s="37">
+      <c r="AL96" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12718,58 +12934,58 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1">
         <v>-976632000</v>
@@ -12807,12 +13023,12 @@
       <c r="AE97" s="1">
         <v>-3282265000</v>
       </c>
-      <c r="AL97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM97" s="36">
+      <c r="AL97" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM97" s="37">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>7.8657495000000008E-2</v>
+        <v>7.8294528000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12820,99 +13036,99 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM98" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM98" s="71"/>
     </row>
     <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13008,10 +13224,10 @@
       <c r="AE99" s="1">
         <v>846964000</v>
       </c>
-      <c r="AL99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM99" s="24">
+      <c r="AL99" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM99" s="35">
         <f>AM86+AM87</f>
         <v>6545030000</v>
       </c>
@@ -13110,12 +13326,12 @@
       <c r="AE100" s="10">
         <v>-2662536000</v>
       </c>
-      <c r="AL100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM100" s="34">
+      <c r="AL100" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM100" s="37">
         <f>AM99/AM103</f>
-        <v>0.10416508620845066</v>
+        <v>0.10317765218555119</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13123,82 +13339,82 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1">
         <v>169000</v>
@@ -13212,12 +13428,12 @@
       <c r="AE101" s="1">
         <v>741000</v>
       </c>
-      <c r="AL101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM101" s="40" cm="1">
+      <c r="AL101" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM101" s="41" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56288211331</v>
+        <v>56889540000</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13234,13 +13450,13 @@
         <v>48500000</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H102" s="10">
         <v>8100000</v>
@@ -13314,12 +13530,12 @@
       <c r="AE102" s="10">
         <v>-253530000</v>
       </c>
-      <c r="AL102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM102" s="34">
+      <c r="AL102" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM102" s="37">
         <f>AM101/AM103</f>
-        <v>0.89583491379154934</v>
+        <v>0.89682234781444881</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13416,12 +13632,12 @@
       <c r="AE103" s="1">
         <v>362113000</v>
       </c>
-      <c r="AL103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM103" s="41">
+      <c r="AL103" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM103" s="42">
         <f>AM99+AM101</f>
-        <v>62833241331</v>
+        <v>63434570000</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13429,22 +13645,22 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11">
         <v>9800000</v>
@@ -13518,436 +13734,540 @@
       <c r="AE104" s="11">
         <v>108583000</v>
       </c>
-      <c r="AL104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM104" s="65"/>
+      <c r="AL104" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM104" s="71"/>
     </row>
     <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AD105" si="34">(B22*(1-$AM$91))+B77+B88+B81</f>
+        <v>-9218376.3272000309</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="34"/>
+        <v>-3947307.3672889303</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="34"/>
+        <v>-27020974.539555609</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="34"/>
+        <v>-29142003.03360007</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="34"/>
+        <v>-14798552.518977866</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="34"/>
+        <v>-122827429.60457791</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="34"/>
+        <v>-54901042.822355747</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="34"/>
+        <v>-66296746.219165996</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="34"/>
+        <v>-14427793.309643388</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="34"/>
+        <v>15192740.918405443</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="34"/>
+        <v>39058178.771588504</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="34"/>
+        <v>57886228.688423544</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="34"/>
+        <v>20135264.789693624</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="34"/>
+        <v>-13685405.778847337</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="34"/>
+        <v>48226622.649093926</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="34"/>
+        <v>-5366032.365547061</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="34"/>
+        <v>-108003973.22642481</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="34"/>
+        <v>371487793.25425959</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="34"/>
+        <v>872457208.2839793</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="34"/>
+        <v>1123050087.8118238</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="34"/>
+        <v>696220745.91902184</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="34"/>
+        <v>985366904.10393572</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="34"/>
+        <v>1166487782.1203399</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="34"/>
+        <v>1277114478.9336307</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="34"/>
+        <v>1113935387.702307</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="34"/>
+        <v>1254261443.2450588</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="34"/>
+        <v>1125952738.9335234</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="34"/>
+        <v>2452505324.6077137</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="34"/>
+        <v>2812870933.8360748</v>
+      </c>
+      <c r="AE105" s="1">
+        <f>(AE22*(1-$AM$91))+AE77+AE88+AE81</f>
+        <v>2609853500.5297189</v>
+      </c>
+      <c r="AF105" s="29">
+        <f>AE105*(1+$AM$106)</f>
+        <v>2753334072.2360144</v>
+      </c>
+      <c r="AG105" s="29">
+        <f t="shared" ref="AG105:AJ105" si="35">AF105*(1+$AM$106)</f>
+        <v>2904702701.4340377</v>
+      </c>
+      <c r="AH105" s="29">
+        <f t="shared" si="35"/>
+        <v>3064393045.7978058</v>
+      </c>
+      <c r="AI105" s="29">
+        <f t="shared" si="35"/>
+        <v>3232862603.9759274</v>
+      </c>
+      <c r="AJ105" s="29">
+        <f t="shared" si="35"/>
+        <v>3410594026.2845826</v>
+      </c>
+      <c r="AK105" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL105" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.4854368932038835</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>4.2264150943396226</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>6.8592057761732939E-2</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.34797297297297303</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>5.5336787564766841</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AE105" si="8">(H106/G106)-1</f>
-        <v>-0.55352894528152263</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.35266429840142099</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.75717943667520182</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.1230802509193165</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>14.968365553602812</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.45966321813779443</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.84612629594721955</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.2606884723753522</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.3903546561721352</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.5733460597745035</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.0038945684679046</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.6105155928043895</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.337412938853217</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20256693040856377</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.46137399088801856</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.4848197287877456</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14072455134704387</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.1272306606905711</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.0984922629146547E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.30449577551301155</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.11678780204481864</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.1945350983226923</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.16593379063223312</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.4949102120235525E-2</v>
-      </c>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM105" s="26">
+      <c r="AM105" s="44">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>7.2412797606971183E-2</v>
+        <v>7.2146477364026018E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-10300000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-5300000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-27700000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-29600000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-19300000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-126100000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-56300000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-76155000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-18492000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>2276000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>36344000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>53050000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>8163000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-42943000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>16763000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>-43137000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-129579000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>338268000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>790672000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>950836000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>512145000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>760443000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>867456000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>977823000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>937747000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1223287000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1080422000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>2371024000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>2764457000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>2584908000</v>
-      </c>
-      <c r="AF106" s="42">
-        <f>AE106*(1+$AM$106)</f>
-        <v>2724573289.6425476</v>
-      </c>
-      <c r="AG106" s="42">
-        <f t="shared" ref="AG106:AJ106" si="9">AF106*(1+$AM$106)</f>
-        <v>2871784841.3303738</v>
-      </c>
-      <c r="AH106" s="42">
-        <f t="shared" si="9"/>
-        <v>3026950387.51441</v>
-      </c>
-      <c r="AI106" s="42">
-        <f t="shared" si="9"/>
-        <v>3190499690.857439</v>
-      </c>
-      <c r="AJ106" s="42">
-        <f t="shared" si="9"/>
-        <v>3362885734.549541</v>
-      </c>
-      <c r="AK106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:AE106" si="36">(C107/B107)-1</f>
+        <v>-0.4854368932038835</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="36"/>
+        <v>4.2264150943396226</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="36"/>
+        <v>6.8592057761732939E-2</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="36"/>
+        <v>-0.34797297297297303</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="36"/>
+        <v>5.5336787564766841</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="36"/>
+        <v>-0.55352894528152263</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.35266429840142099</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="36"/>
+        <v>-0.75717943667520182</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="36"/>
+        <v>-1.1230802509193165</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="36"/>
+        <v>14.968365553602812</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.45966321813779443</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="36"/>
+        <v>-0.84612629594721955</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="36"/>
+        <v>-6.2606884723753522</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="36"/>
+        <v>-1.3903546561721352</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="36"/>
+        <v>-3.5733460597745035</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="36"/>
+        <v>2.0038945684679046</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="36"/>
+        <v>-3.6105155928043895</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="36"/>
+        <v>1.337412938853217</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.20256693040856377</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="36"/>
+        <v>-0.46137399088801856</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.4848197287877456</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.14072455134704387</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.1272306606905711</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="36"/>
+        <v>-4.0984922629146547E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.30449577551301155</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="36"/>
+        <v>-0.11678780204481864</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="36"/>
+        <v>1.1945350983226923</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="36"/>
+        <v>0.16593379063223312</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="36"/>
+        <v>-6.4949102120235525E-2</v>
+      </c>
+      <c r="AF106" s="33">
+        <v>2204000000</v>
+      </c>
+      <c r="AG106" s="33">
+        <v>2483000000</v>
+      </c>
+      <c r="AH106" s="33">
+        <v>2632000000</v>
+      </c>
+      <c r="AI106" s="33">
+        <v>2714000000</v>
+      </c>
+      <c r="AJ106" s="33">
+        <v>2992000000</v>
+      </c>
+      <c r="AK106" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL106" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM106" s="46">
         <f>(SUM(AF4:AJ4)/5)</f>
-        <v>5.4031048548941606E-2</v>
+        <v>5.4976484954873242E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="43"/>
-      <c r="AH107" s="43"/>
-      <c r="AI107" s="43"/>
-      <c r="AJ107" s="46">
+      <c r="A107" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-10300000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-5300000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-27700000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-29600000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-19300000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-126100000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-56300000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-76155000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-18492000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2276000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>36344000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>53050000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>8163000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-42943000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>16763000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>-43137000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>-129579000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>338268000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>790672000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>950836000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>512145000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>760443000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>867456000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>977823000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>937747000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1223287000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1080422000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>2371024000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>2764457000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>2584908000</v>
+      </c>
+      <c r="AF107" s="30"/>
+      <c r="AG107" s="30"/>
+      <c r="AH107" s="30"/>
+      <c r="AI107" s="30"/>
+      <c r="AJ107" s="66">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>72701001668.091125</v>
-      </c>
-      <c r="AK107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM107" s="49">
+        <v>65048338104.25988</v>
+      </c>
+      <c r="AK107" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL107" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF108" s="46">
-        <f t="shared" ref="AF108:AH108" si="10">AF107+AF106</f>
-        <v>2724573289.6425476</v>
-      </c>
-      <c r="AG108" s="46">
-        <f t="shared" si="10"/>
-        <v>2871784841.3303738</v>
-      </c>
-      <c r="AH108" s="46">
-        <f t="shared" si="10"/>
-        <v>3026950387.51441</v>
-      </c>
-      <c r="AI108" s="46">
-        <f>AI107+AI106</f>
-        <v>3190499690.857439</v>
-      </c>
-      <c r="AJ108" s="46">
+      <c r="AF108" s="66">
+        <f t="shared" ref="AF108:AI108" si="37">AF107+AF106</f>
+        <v>2204000000</v>
+      </c>
+      <c r="AG108" s="66">
+        <f t="shared" si="37"/>
+        <v>2483000000</v>
+      </c>
+      <c r="AH108" s="66">
+        <f t="shared" si="37"/>
+        <v>2632000000</v>
+      </c>
+      <c r="AI108" s="66">
+        <f t="shared" si="37"/>
+        <v>2714000000</v>
+      </c>
+      <c r="AJ108" s="66">
         <f>AJ107+AJ106</f>
-        <v>76063887402.640671</v>
-      </c>
-      <c r="AK108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM108" s="51">
+        <v>68040338104.25988</v>
+      </c>
+      <c r="AK108" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL108" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM108" s="46">
         <f>AM105</f>
-        <v>7.2412797606971183E-2</v>
+        <v>7.2146477364026018E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG109" s="61"/>
+      <c r="AF109" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG109" s="68"/>
     </row>
     <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG110" s="40">
+      <c r="AF110" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG110" s="41">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>63529251087.075859</v>
+        <v>56433495538.153946</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG111" s="40">
+      <c r="AF111" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG111" s="41">
         <f>AE40</f>
         <v>108583000</v>
       </c>
     </row>
     <row r="112" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG112" s="40">
+      <c r="AF112" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG112" s="41">
         <f>AM99</f>
         <v>6545030000</v>
       </c>
     </row>
     <row r="113" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG113" s="40">
+      <c r="AF113" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG113" s="41">
         <f>AG110+AG111-AG112</f>
-        <v>57092804087.075859</v>
+        <v>49997048538.153946</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG114" s="53">
+      <c r="AF114" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG114" s="50">
         <f>AE34*(1+(AK16*5))</f>
         <v>44826569.022963166</v>
       </c>
     </row>
     <row r="115" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG115" s="55">
+      <c r="AF115" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG115" s="52">
         <f>AG113/AG114</f>
-        <v>1273.637606702157</v>
+        <v>1115.3440833837208</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG116" s="56" cm="1">
+      <c r="AF116" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG116" s="53" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>924.59249999999997</v>
+        <v>934.47</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG117" s="58">
+      <c r="AF117" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG117" s="54">
         <f>AG115/AG116-1</f>
-        <v>0.37751237080352373</v>
+        <v>0.1935579348547527</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG118" s="59" t="str">
+      <c r="AF118" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG118" s="55" t="str">
         <f>IF(AG115&gt;AG116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -14024,8 +14344,9 @@
     <hyperlink ref="AE36" r:id="rId60" tooltip="https://www.sec.gov/Archives/edgar/data/898173/000089817323000011/0000898173-23-000011-index.htm" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="AE74" r:id="rId61" tooltip="https://www.sec.gov/Archives/edgar/data/898173/000089817323000011/0000898173-23-000011-index.htm" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="AF1" r:id="rId62" display="https://finbox.com/NASDAQGS:ORLY/explorer/revenue_proj" xr:uid="{1592E5EF-D115-784C-B95A-AB5236BDD0CF}"/>
+    <hyperlink ref="AK106" r:id="rId63" xr:uid="{31F0C127-0B85-1D4A-B3A6-890D7B764077}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId63"/>
+  <drawing r:id="rId64"/>
 </worksheet>
 </file>
--- a/Consumer/O'Reilly Automotive.xlsx
+++ b/Consumer/O'Reilly Automotive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC06E41-9A50-3346-B0C9-4064BED95F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77296A52-FE18-FE40-91CA-C5374DC2906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2343,6 +2343,10 @@
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
@@ -2364,6 +2368,10 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2489,13 +2497,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>964.58</v>
+    <v>966.64</v>
     <v>647.54</v>
     <v>0.86890000000000001</v>
-    <v>-9.86</v>
-    <v>-1.0441000000000001E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>26.62</v>
+    <v>2.8486999999999998E-2</v>
     <v>USD</v>
     <v>O’Reilly Automotive, Inc. is a specialty retailer of automotive aftermarket parts, tools, supplies, equipment, and accessories in the United States. The Company sells its products to both do-it-yourself (DIY) and professional service provider customers. Its product line includes new and remanufactured automotive hard parts and maintenance items, such as alternators, batteries, brake system components, belts, chassis parts, driveline parts, engine parts, fuel pumps, hoses, starters, temperature control, water pumps, antifreeze, appearance products, engine additives, filters, fluids, lighting, oil and wiper blades, and accessories, such as floor mats, seat covers and truck accessories. The Company's stores offer various services and programs to its customers, such as battery diagnostic testing; battery, wiper and bulb replacement; custom hydraulic hoses; drum and rotor resurfacing; electrical and module testing; loaner tool program, and used oil, oil filter and battery recycling.</v>
     <v>71612</v>
@@ -2503,25 +2509,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>233 S Patterson Ave, SPRINGFIELD, MO, 65802 US</v>
-    <v>941.36990000000003</v>
+    <v>966.64</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45114.99209381875</v>
+    <v>45117.979612383591</v>
     <v>0</v>
-    <v>930.21</v>
-    <v>56889540000</v>
+    <v>936.93</v>
+    <v>58510140444</v>
     <v>O'Reilly Automotive, Inc.</v>
     <v>O'Reilly Automotive, Inc.</v>
-    <v>940.17</v>
-    <v>27.006399999999999</v>
-    <v>944.33</v>
+    <v>936.93</v>
+    <v>27.775700000000001</v>
     <v>934.47</v>
-    <v>934.47</v>
+    <v>961.09</v>
     <v>60878940</v>
     <v>ORLY</v>
     <v>O'Reilly Automotive, Inc. (XNAS:ORLY)</v>
-    <v>474464</v>
-    <v>508625</v>
+    <v>402206</v>
+    <v>480135</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2553,8 +2558,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2575,7 +2578,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2592,7 +2594,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2603,16 +2605,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2678,19 +2677,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2735,9 +2728,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2745,9 +2735,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4919,15 +4906,15 @@
       </c>
       <c r="AL16" s="26">
         <f>AM101/AE3</f>
-        <v>3.9479592445728136</v>
+        <v>4.0604239350000624</v>
       </c>
       <c r="AM16" s="26">
         <f>AM101/AE28</f>
-        <v>26.184401537293166</v>
+        <v>26.930311114997814</v>
       </c>
       <c r="AN16" s="27">
         <f>AM101/AE107</f>
-        <v>22.008342269821597</v>
+        <v>22.63528931938777</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -5247,15 +5234,15 @@
       </c>
       <c r="AL19" s="56">
         <f>AM101/AF3</f>
-        <v>3.663202833226014</v>
+        <v>3.7675557272376046</v>
       </c>
       <c r="AM19" s="57">
         <f>AM101/AF28</f>
-        <v>24.83175032736796</v>
+        <v>25.539127212570929</v>
       </c>
       <c r="AN19" s="58">
         <f>AM101/AF106</f>
-        <v>25.811950998185118</v>
+        <v>26.547250655172412</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5624,7 +5611,7 @@
       </c>
       <c r="AN22" s="60">
         <f>AE107/AM101</f>
-        <v>4.5437315893220441E-2</v>
+        <v>4.4178803543874809E-2</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13331,7 +13318,7 @@
       </c>
       <c r="AM100" s="37">
         <f>AM99/AM103</f>
-        <v>0.10317765218555119</v>
+        <v>0.10060737609832278</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13433,7 +13420,7 @@
       </c>
       <c r="AM101" s="41" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56889540000</v>
+        <v>58510140444</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13535,7 +13522,7 @@
       </c>
       <c r="AM102" s="37">
         <f>AM101/AM103</f>
-        <v>0.89682234781444881</v>
+        <v>0.89939262390167718</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13637,7 +13624,7 @@
       </c>
       <c r="AM103" s="42">
         <f>AM99+AM101</f>
-        <v>63434570000</v>
+        <v>65055170444</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13891,7 +13878,7 @@
       </c>
       <c r="AM105" s="44">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>7.2146477364026018E-2</v>
+        <v>7.2299632501771308E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -14141,7 +14128,7 @@
       <c r="AI107" s="30"/>
       <c r="AJ107" s="66">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>65048338104.25988</v>
+        <v>64837713060.141685</v>
       </c>
       <c r="AK107" s="31" t="s">
         <v>146</v>
@@ -14172,7 +14159,7 @@
       </c>
       <c r="AJ108" s="66">
         <f>AJ107+AJ106</f>
-        <v>68040338104.25988</v>
+        <v>67829713060.141685</v>
       </c>
       <c r="AK108" s="31" t="s">
         <v>143</v>
@@ -14182,7 +14169,7 @@
       </c>
       <c r="AM108" s="46">
         <f>AM105</f>
-        <v>7.2146477364026018E-2</v>
+        <v>7.2299632501771308E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -14197,7 +14184,7 @@
       </c>
       <c r="AG110" s="41">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>56433495538.153946</v>
+        <v>56247638230.031975</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -14224,7 +14211,7 @@
       </c>
       <c r="AG113" s="41">
         <f>AG110+AG111-AG112</f>
-        <v>49997048538.153946</v>
+        <v>49811191230.031975</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14242,7 +14229,7 @@
       </c>
       <c r="AG115" s="52">
         <f>AG113/AG114</f>
-        <v>1115.3440833837208</v>
+        <v>1111.1979416607894</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14251,7 +14238,7 @@
       </c>
       <c r="AG116" s="53" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>934.47</v>
+        <v>961.09</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14260,7 +14247,7 @@
       </c>
       <c r="AG117" s="54">
         <f>AG115/AG116-1</f>
-        <v>0.1935579348547527</v>
+        <v>0.15618510405975439</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/O'Reilly Automotive.xlsx
+++ b/Consumer/O'Reilly Automotive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77296A52-FE18-FE40-91CA-C5374DC2906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1774B371-CBCE-1040-A3D7-769644E60779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,19 +2341,24 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>4.6260000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2372,6 +2377,11 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2497,11 +2507,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>966.64</v>
-    <v>647.54</v>
-    <v>0.86890000000000001</v>
-    <v>26.62</v>
-    <v>2.8486999999999998E-2</v>
+    <v>975.72</v>
+    <v>696.72</v>
+    <v>0.84609999999999996</v>
+    <v>3.24</v>
+    <v>3.5439999999999998E-3</v>
+    <v>0.92</v>
+    <v>1.003E-3</v>
     <v>USD</v>
     <v>O’Reilly Automotive, Inc. is a specialty retailer of automotive aftermarket parts, tools, supplies, equipment, and accessories in the United States. The Company sells its products to both do-it-yourself (DIY) and professional service provider customers. Its product line includes new and remanufactured automotive hard parts and maintenance items, such as alternators, batteries, brake system components, belts, chassis parts, driveline parts, engine parts, fuel pumps, hoses, starters, temperature control, water pumps, antifreeze, appearance products, engine additives, filters, fluids, lighting, oil and wiper blades, and accessories, such as floor mats, seat covers and truck accessories. The Company's stores offer various services and programs to its customers, such as battery diagnostic testing; battery, wiper and bulb replacement; custom hydraulic hoses; drum and rotor resurfacing; electrical and module testing; loaner tool program, and used oil, oil filter and battery recycling.</v>
     <v>71612</v>
@@ -2509,24 +2521,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>233 S Patterson Ave, SPRINGFIELD, MO, 65802 US</v>
-    <v>966.64</v>
+    <v>921.4</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45117.979612383591</v>
+    <v>45197.981379039062</v>
     <v>0</v>
-    <v>936.93</v>
-    <v>58510140444</v>
+    <v>912.125</v>
+    <v>55281603699</v>
     <v>O'Reilly Automotive, Inc.</v>
     <v>O'Reilly Automotive, Inc.</v>
-    <v>936.93</v>
-    <v>27.775700000000001</v>
-    <v>934.47</v>
-    <v>961.09</v>
-    <v>60878940</v>
+    <v>915.85</v>
+    <v>25.452100000000002</v>
+    <v>914.17</v>
+    <v>917.41</v>
+    <v>918.33</v>
+    <v>60258340</v>
     <v>ORLY</v>
     <v>O'Reilly Automotive, Inc. (XNAS:ORLY)</v>
-    <v>402206</v>
-    <v>480135</v>
+    <v>350680</v>
+    <v>358837</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2558,6 +2571,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2578,6 +2593,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2594,7 +2610,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2605,13 +2621,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2677,13 +2696,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2728,6 +2753,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2735,6 +2763,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3096,10 +3127,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI98" sqref="AI98"/>
+      <selection pane="bottomRight" activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4906,15 +4937,15 @@
       </c>
       <c r="AL16" s="26">
         <f>AM101/AE3</f>
-        <v>4.0604239350000624</v>
+        <v>3.8363734067506554</v>
       </c>
       <c r="AM16" s="26">
         <f>AM101/AE28</f>
-        <v>26.930311114997814</v>
+        <v>25.444320851954984</v>
       </c>
       <c r="AN16" s="27">
         <f>AM101/AE107</f>
-        <v>22.63528931938777</v>
+        <v>21.386294482821054</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -5234,15 +5265,15 @@
       </c>
       <c r="AL19" s="56">
         <f>AM101/AF3</f>
-        <v>3.7675557272376046</v>
+        <v>3.5596654023824854</v>
       </c>
       <c r="AM19" s="57">
         <f>AM101/AF28</f>
-        <v>25.539127212570929</v>
+        <v>24.129901221737232</v>
       </c>
       <c r="AN19" s="58">
         <f>AM101/AF106</f>
-        <v>26.547250655172412</v>
+        <v>25.082397322595281</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5611,7 +5642,7 @@
       </c>
       <c r="AN22" s="60">
         <f>AE107/AM101</f>
-        <v>4.4178803543874809E-2</v>
+        <v>4.6758918465434444E-2</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -12710,7 +12741,7 @@
       </c>
       <c r="AM94" s="67">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>4.6260000000000003E-2</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12812,7 +12843,7 @@
       </c>
       <c r="AM95" s="40" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>0.86890000000000001</v>
+        <v>0.84609999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13015,7 +13046,7 @@
       </c>
       <c r="AM97" s="37">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>7.8294528000000002E-2</v>
+        <v>7.8191813999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13318,7 +13349,7 @@
       </c>
       <c r="AM100" s="37">
         <f>AM99/AM103</f>
-        <v>0.10060737609832278</v>
+        <v>0.10586101180705008</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13420,7 +13451,7 @@
       </c>
       <c r="AM101" s="41" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58510140444</v>
+        <v>55281603699</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13522,7 +13553,7 @@
       </c>
       <c r="AM102" s="37">
         <f>AM101/AM103</f>
-        <v>0.89939262390167718</v>
+        <v>0.8941389881929499</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13624,7 +13655,7 @@
       </c>
       <c r="AM103" s="42">
         <f>AM99+AM101</f>
-        <v>65055170444</v>
+        <v>61826633699</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13878,7 +13909,7 @@
       </c>
       <c r="AM105" s="44">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>7.2299632501771308E-2</v>
+        <v>7.189474332144366E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -14128,7 +14159,7 @@
       <c r="AI107" s="30"/>
       <c r="AJ107" s="66">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>64837713060.141685</v>
+        <v>65397521828.371696</v>
       </c>
       <c r="AK107" s="31" t="s">
         <v>146</v>
@@ -14159,7 +14190,7 @@
       </c>
       <c r="AJ108" s="66">
         <f>AJ107+AJ106</f>
-        <v>67829713060.141685</v>
+        <v>68389521828.371696</v>
       </c>
       <c r="AK108" s="31" t="s">
         <v>143</v>
@@ -14169,7 +14200,7 @@
       </c>
       <c r="AM108" s="46">
         <f>AM105</f>
-        <v>7.2299632501771308E-2</v>
+        <v>7.189474332144366E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -14184,7 +14215,7 @@
       </c>
       <c r="AG110" s="41">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>56247638230.031975</v>
+        <v>56741622170.130371</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -14211,7 +14242,7 @@
       </c>
       <c r="AG113" s="41">
         <f>AG110+AG111-AG112</f>
-        <v>49811191230.031975</v>
+        <v>50305175170.130371</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14229,7 +14260,7 @@
       </c>
       <c r="AG115" s="52">
         <f>AG113/AG114</f>
-        <v>1111.1979416607894</v>
+        <v>1122.2178334540995</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14238,7 +14269,7 @@
       </c>
       <c r="AG116" s="53" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>961.09</v>
+        <v>917.41</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14247,7 +14278,7 @@
       </c>
       <c r="AG117" s="54">
         <f>AG115/AG116-1</f>
-        <v>0.15618510405975439</v>
+        <v>0.22324569544053308</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">
